--- a/fhir/ig/iq/StructureDefinition-PaisOrigenMPI.xlsx
+++ b/fhir/ig/iq/StructureDefinition-PaisOrigenMPI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:55:58-03:00</t>
+    <t>2024-12-16T14:50:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/iq/StructureDefinition-PaisOrigenMPI.xlsx
+++ b/fhir/ig/iq/StructureDefinition-PaisOrigenMPI.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:11-03:00</t>
+    <t>2024-12-17T10:27:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
